--- a/angular-training-Syllabus.xlsx
+++ b/angular-training-Syllabus.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="B1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
